--- a/xlsx/sc_FishData.xlsx
+++ b/xlsx/sc_FishData.xlsx
@@ -1,75 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Z'hang'Q'i'chao\Documents\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A375607-32C9-45BE-BC37-F6E1393F206C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="3120" yWindow="2220" windowWidth="28830" windowHeight="7830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>prefabPath</t>
+  </si>
+  <si>
     <t>atk</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>life</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>moveSpeed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>skillId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>宝宝鱼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNpc_01</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
   <si>
     <t>贪吃鱼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishPlayer_01</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
   <si>
     <t>鲨鱼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefabPath</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishNpc_01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishPlayer_01</t>
   </si>
   <si>
     <t>FishNpc_02</t>
@@ -78,36 +61,42 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color indexed="8"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -117,119 +106,113 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -421,17 +404,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -450,19 +433,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -480,7 +463,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -506,7 +489,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -532,7 +515,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -558,7 +541,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -584,7 +567,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -610,7 +593,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -636,7 +619,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -662,7 +645,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -688,7 +671,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -701,32 +684,26 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -745,7 +722,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -771,7 +748,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -797,7 +774,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -823,7 +800,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -849,7 +826,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -875,7 +852,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -901,7 +878,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -927,7 +904,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -953,7 +930,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -979,7 +956,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -992,15 +969,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1014,7 +985,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1033,19 +1004,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1063,7 +1034,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1089,7 +1060,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1115,7 +1086,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1141,7 +1112,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1167,7 +1138,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1193,7 +1164,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1219,7 +1190,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1245,7 +1216,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1271,7 +1242,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1284,78 +1255,71 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="8.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="1" customWidth="1"/>
+    <col min="1" max="2" width="8.85156" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85156" style="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.875" style="1"/>
+    <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85156" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="15.95" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+    <row r="2" ht="15.95" customHeight="1">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="B2" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3">
         <v>0</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>8</v>
+      <c r="E2" t="s" s="2">
+        <v>9</v>
       </c>
       <c r="F2" s="3">
         <v>0.4</v>
@@ -1364,21 +1328,21 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+    <row r="3" ht="15.95" customHeight="1">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s" s="2">
         <v>12</v>
-      </c>
-      <c r="D3" s="4">
-        <v>20</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="F3" s="3">
         <v>0.6</v>
@@ -1387,21 +1351,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+    <row r="4" ht="15.95" customHeight="1">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="D4" s="4">
+      <c r="C4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3">
         <v>20</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>9</v>
+      <c r="E4" t="s" s="2">
+        <v>12</v>
       </c>
       <c r="F4" s="3">
         <v>0.4</v>
@@ -1410,55 +1374,63 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+    <row r="5" ht="15.95" customHeight="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+    <row r="6" ht="15.95" customHeight="1">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+    <row r="7" ht="15.95" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+    <row r="8" ht="15.95" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+    <row r="9" ht="15.95" customHeight="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" ht="16" customHeight="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/xlsx/sc_FishData.xlsx
+++ b/xlsx/sc_FishData.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8199FDE5-5878-406E-AB19-3341C7DCF3C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="5115" yWindow="1800" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -56,30 +65,42 @@
   </si>
   <si>
     <t>FishNpc_02</t>
+  </si>
+  <si>
+    <t>河豚鱼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishPlayer_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>999999</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="等线"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -158,61 +179,105 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -414,7 +479,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -433,7 +498,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -463,7 +528,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -489,7 +554,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -515,7 +580,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -541,7 +606,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -567,7 +632,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -593,7 +658,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -619,7 +684,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -645,7 +710,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -671,7 +736,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -684,9 +749,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -703,7 +774,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -722,7 +793,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -748,7 +819,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -774,7 +845,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -800,7 +871,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -826,7 +897,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -852,7 +923,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -878,7 +949,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -904,7 +975,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -930,7 +1001,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -956,7 +1027,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -969,9 +1040,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -985,7 +1062,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1004,7 +1081,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1034,7 +1111,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1060,7 +1137,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1086,7 +1163,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1112,7 +1189,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1138,7 +1215,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1164,7 +1241,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1190,7 +1267,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1216,7 +1293,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1242,7 +1319,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1255,70 +1332,79 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.85156" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="2" width="8.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85156" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.95" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="15.95" customHeight="1">
+    <row r="2" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="3">
@@ -1328,20 +1414,20 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" ht="15.95" customHeight="1">
+    <row r="3" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="3">
         <v>20</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="3">
@@ -1351,20 +1437,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="15.95" customHeight="1">
+    <row r="4" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="3">
         <v>20</v>
       </c>
-      <c r="E4" t="s" s="2">
+      <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="3">
@@ -1374,16 +1460,30 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" ht="15.95" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+    <row r="5" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" ht="15.95" customHeight="1">
+    <row r="6" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1392,7 +1492,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" ht="15.95" customHeight="1">
+    <row r="7" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1401,7 +1501,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" ht="15.95" customHeight="1">
+    <row r="8" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1410,7 +1510,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" ht="15.95" customHeight="1">
+    <row r="9" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1419,7 +1519,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" ht="16" customHeight="1">
+    <row r="10" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1429,8 +1529,9 @@
       <c r="G10" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/xlsx/sc_FishData.xlsx
+++ b/xlsx/sc_FishData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8199FDE5-5878-406E-AB19-3341C7DCF3C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384A3F1C-E0C9-49DB-914D-5A3E49FE6D47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="1800" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7140" yWindow="2160" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>999999</t>
+    <t>100</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1408,7 +1408,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="3">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="G2" s="3">
         <v>-1</v>
@@ -1431,7 +1431,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="3">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G3" s="3">
         <v>2</v>
@@ -1454,7 +1454,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="3">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G4" s="3">
         <v>-1</v>
@@ -1471,7 +1471,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>17</v>

--- a/xlsx/sc_FishData.xlsx
+++ b/xlsx/sc_FishData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384A3F1C-E0C9-49DB-914D-5A3E49FE6D47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBD402E-24EB-4496-9B5C-2099594F6124}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="2160" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5025" yWindow="1845" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -76,6 +76,10 @@
   </si>
   <si>
     <t>100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1354,7 +1358,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1450,8 +1454,8 @@
       <c r="D4" s="3">
         <v>20</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
+      <c r="E4" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="F4" s="3">
         <v>0.5</v>

--- a/xlsx/sc_FishData.xlsx
+++ b/xlsx/sc_FishData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBD402E-24EB-4496-9B5C-2099594F6124}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B275632-4B02-4194-ABF5-F5BAEC2420A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5025" yWindow="1845" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4890" yWindow="1515" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -80,6 +80,10 @@
   </si>
   <si>
     <t>5000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>isPlayerFish</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1355,10 +1359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1368,11 +1372,12 @@
     <col min="4" max="4" width="8.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="1" customWidth="1"/>
     <col min="9" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1394,8 +1399,11 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -1417,8 +1425,11 @@
       <c r="G2" s="3">
         <v>-1</v>
       </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1440,8 +1451,11 @@
       <c r="G3" s="3">
         <v>2</v>
       </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1463,8 +1477,11 @@
       <c r="G4" s="3">
         <v>-1</v>
       </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1486,8 +1503,11 @@
       <c r="G5" s="3">
         <v>3</v>
       </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1495,8 +1515,9 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1504,8 +1525,9 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1513,8 +1535,9 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1522,8 +1545,9 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1531,6 +1555,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/xlsx/sc_FishData.xlsx
+++ b/xlsx/sc_FishData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B275632-4B02-4194-ABF5-F5BAEC2420A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA5C045-CC3F-4AB8-8D9A-0B4FF1A8985E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="1515" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33690" yWindow="1545" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,70 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Z'hang'Q'i'chao</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{2AE96053-D515-4410-96F2-90C27CD496D2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Z'hang'Q'i'chao:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+参考LanguageData</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{28DDD581-DD50-428A-A0F4-0DAB42542795}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Z'hang'Q'i'chao:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+鱼介绍，参照LanguageData</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -43,32 +105,19 @@
     <t>skillId</t>
   </si>
   <si>
-    <t>宝宝鱼</t>
-  </si>
-  <si>
     <t>FishNpc_01</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>贪吃鱼</t>
-  </si>
-  <si>
     <t>FishPlayer_01</t>
   </si>
   <si>
     <t>100</t>
   </si>
   <si>
-    <t>鲨鱼</t>
-  </si>
-  <si>
     <t>FishNpc_02</t>
-  </si>
-  <si>
-    <t>河豚鱼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>FishPlayer_02</t>
@@ -84,6 +133,33 @@
   </si>
   <si>
     <t>isPlayerFish</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10030</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>10011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10031</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -91,7 +167,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -106,6 +182,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1358,26 +1449,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.875" style="1"/>
+    <col min="1" max="3" width="8.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1385,129 +1476,140 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>19</v>
+      <c r="I1" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3">
+      <c r="G2" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="H2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I2" s="3">
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="G2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <v>0.8</v>
-      </c>
-      <c r="G3" s="3">
-        <v>2</v>
       </c>
       <c r="H3" s="3">
         <v>1</v>
       </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3">
+        <v>20</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3">
-        <v>20</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <v>0.5</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <v>-1</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3">
+        <v>22</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3">
         <v>20</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="F5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="3">
         <v>0.8</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <v>3</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1516,8 +1618,9 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1526,8 +1629,9 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1536,8 +1640,9 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1546,16 +1651,18 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
+      <c r="G10" s="6"/>
       <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1564,5 +1671,6 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/xlsx/sc_FishData.xlsx
+++ b/xlsx/sc_FishData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA5C045-CC3F-4AB8-8D9A-0B4FF1A8985E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA6886A-B06A-4D1A-821C-37E7203ABCF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33690" yWindow="1545" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3945" yWindow="990" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -108,9 +108,6 @@
     <t>FishNpc_01</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>FishPlayer_01</t>
   </si>
   <si>
@@ -160,6 +157,10 @@
   </si>
   <si>
     <t>10031</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1453,7 +1454,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1476,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -1494,7 +1495,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1502,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="2" t="s">
@@ -1511,8 +1512,8 @@
       <c r="E2" s="3">
         <v>0</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
+      <c r="F2" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="G2" s="3">
         <v>0.6</v>
@@ -1529,19 +1530,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" s="3">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="G3" s="3">
         <v>0.8</v>
@@ -1558,17 +1559,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="3">
         <v>20</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="3">
         <v>0.5</v>
@@ -1585,19 +1586,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3">
+        <v>10</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="E5" s="3">
-        <v>20</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>13</v>
       </c>
       <c r="G5" s="3">
         <v>0.8</v>

--- a/xlsx/sc_FishData.xlsx
+++ b/xlsx/sc_FishData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA6886A-B06A-4D1A-821C-37E7203ABCF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF54A40F-669D-4488-9700-A7C2FCF52724}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3945" yWindow="990" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1454,7 +1454,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1566,7 +1566,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>13</v>

--- a/xlsx/sc_FishData.xlsx
+++ b/xlsx/sc_FishData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF54A40F-669D-4488-9700-A7C2FCF52724}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F6BD7B-7A16-4E78-BA96-C31F7ADFF88C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="990" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="1335" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -161,6 +161,10 @@
   </si>
   <si>
     <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rare</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1451,10 +1455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1465,11 +1469,11 @@
     <col min="6" max="6" width="14" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.875" style="1"/>
+    <col min="9" max="10" width="10.375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1495,10 +1499,13 @@
         <v>6</v>
       </c>
       <c r="I1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -1522,10 +1529,13 @@
         <v>-1</v>
       </c>
       <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1553,8 +1563,11 @@
       <c r="I3" s="3">
         <v>1</v>
       </c>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1578,10 +1591,13 @@
         <v>-1</v>
       </c>
       <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1607,10 +1623,13 @@
         <v>3</v>
       </c>
       <c r="I5" s="3">
+        <v>2</v>
+      </c>
+      <c r="J5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1620,8 +1639,9 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1631,8 +1651,9 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1642,8 +1663,9 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1653,8 +1675,9 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1664,6 +1687,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/xlsx/sc_FishData.xlsx
+++ b/xlsx/sc_FishData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F6BD7B-7A16-4E78-BA96-C31F7ADFF88C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172108D2-0B43-4C3B-9353-3533C12E950F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="1335" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="1170" windowWidth="28830" windowHeight="7800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <author>Z'hang'Q'i'chao</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{2AE96053-D515-4410-96F2-90C27CD496D2}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{2AE96053-D515-4410-96F2-90C27CD496D2}">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{28DDD581-DD50-428A-A0F4-0DAB42542795}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{28DDD581-DD50-428A-A0F4-0DAB42542795}">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
@@ -165,6 +165,38 @@
   </si>
   <si>
     <t>rare</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNpc_03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝宝鱼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪吃鱼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲨鱼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>河豚鱼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水母</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金龟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNpc_04</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -285,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -295,6 +327,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1455,110 +1508,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="8.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="10.375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="13" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.875" style="1" customWidth="1"/>
+    <col min="10" max="11" width="10.375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>0</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="3">
         <v>0.6</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <v>-1</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2" s="3">
         <v>1</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3">
+        <v>20</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>0.8</v>
-      </c>
-      <c r="H3" s="3">
-        <v>1</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -1566,128 +1624,182 @@
       <c r="J3" s="3">
         <v>1</v>
       </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
-        <v>5</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="3">
+        <v>20</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <v>0.5</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>-1</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <v>1</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3">
-        <v>10</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="3">
+        <v>20</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <v>0.8</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <v>3</v>
       </c>
-      <c r="I5" s="3">
+      <c r="J5" s="3">
         <v>2</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+    <row r="6" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="11">
+        <v>10040</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+    <row r="7" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="11">
+        <v>10050</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="7"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/xlsx/sc_FishData.xlsx
+++ b/xlsx/sc_FishData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172108D2-0B43-4C3B-9353-3533C12E950F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5C91F9-8DA5-4A97-A405-957A59DE567E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="1170" windowWidth="28830" windowHeight="7800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="1950" windowWidth="28830" windowHeight="7800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -197,6 +197,14 @@
   </si>
   <si>
     <t>FishNpc_04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太空鱼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishPlayer_03</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1511,7 +1519,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1750,7 +1758,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I7" s="4">
         <v>-1</v>
@@ -1763,17 +1771,37 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="11">
+        <v>10060</v>
+      </c>
       <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="E8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="4">
+        <v>20</v>
+      </c>
+      <c r="G8" s="11">
+        <v>100</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="I8" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>

--- a/xlsx/sc_FishData.xlsx
+++ b/xlsx/sc_FishData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5C91F9-8DA5-4A97-A405-957A59DE567E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701BC10D-3D6E-4C71-9390-07F9B203273D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="1950" windowWidth="28830" windowHeight="7800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7530" yWindow="3180" windowWidth="19095" windowHeight="10830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1519,7 +1519,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1589,7 +1589,7 @@
         <v>22</v>
       </c>
       <c r="H2" s="3">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="I2" s="3">
         <v>-1</v>
@@ -1624,7 +1624,7 @@
         <v>9</v>
       </c>
       <c r="H3" s="3">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -1657,7 +1657,7 @@
         <v>13</v>
       </c>
       <c r="H4" s="3">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="I4" s="3">
         <v>-1</v>
@@ -1692,7 +1692,7 @@
         <v>12</v>
       </c>
       <c r="H5" s="3">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I5" s="3">
         <v>3</v>
@@ -1758,7 +1758,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="4">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I7" s="4">
         <v>-1</v>
@@ -1791,7 +1791,7 @@
         <v>100</v>
       </c>
       <c r="H8" s="4">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="I8" s="4">
         <v>-1</v>
